--- a/LineTest.xlsx
+++ b/LineTest.xlsx
@@ -5,13 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Artistes" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Scenes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Combo" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Dico" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Dico" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">Artist</t>
   </si>
@@ -82,9 +81,15 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
+    <t xml:space="preserve">Numéro de scène</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">Style inadapté</t>
+  </si>
+  <si>
     <t xml:space="preserve">La Clairière</t>
   </si>
   <si>
@@ -101,36 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cité des sciences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 points</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Même Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Même Scène</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Même Style</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Même Genre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tous les artistes placés</t>
   </si>
   <si>
     <t xml:space="preserve">Styles</t>
@@ -249,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -274,24 +249,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -317,7 +284,7 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -882,230 +849,275 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>80000</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="E2" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>90000</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="D3" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="E3" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>100000</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>120000</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="D5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>130000</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="D6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>150000</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="D7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="E7" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1123,104 +1135,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.94"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1228,25 +1145,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="9" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>0</v>
       </c>
@@ -1257,7 +1174,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -1267,12 +1184,12 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2</v>
@@ -1281,14 +1198,14 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="11" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>3</v>
@@ -1300,7 +1217,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>4</v>
@@ -1312,7 +1229,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>5</v>

--- a/LineTest.xlsx
+++ b/LineTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Artistes" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t xml:space="preserve">Artist</t>
   </si>
@@ -57,13 +57,7 @@
     <t xml:space="preserve">Upsilone</t>
   </si>
   <si>
-    <t xml:space="preserve">Michel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saverio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blip</t>
   </si>
   <si>
     <t xml:space="preserve">Darius</t>
@@ -224,7 +218,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,10 +241,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -284,8 +274,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,7 +358,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>10000</v>
@@ -388,10 +378,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>8000</v>
@@ -411,10 +401,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>50000</v>
@@ -434,10 +424,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>1000000</v>
@@ -851,8 +841,8 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -863,27 +853,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>21</v>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>1</v>
@@ -897,10 +887,13 @@
       <c r="E2" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="n">
         <v>2</v>
@@ -914,10 +907,13 @@
       <c r="E3" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>3</v>
@@ -931,10 +927,13 @@
       <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>4</v>
@@ -948,10 +947,13 @@
       <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>5</v>
@@ -965,10 +967,13 @@
       <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="F6" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="n">
         <v>6</v>
@@ -981,6 +986,9 @@
       </c>
       <c r="E7" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1110,14 +1118,14 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1145,25 +1153,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="n">
+      <c r="C2" s="8" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>0</v>
       </c>
@@ -1174,7 +1182,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="n">
         <v>1</v>
@@ -1184,12 +1192,12 @@
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2</v>
@@ -1198,14 +1206,14 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="8" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>3</v>
@@ -1217,7 +1225,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>4</v>
@@ -1229,7 +1237,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>5</v>

--- a/LineTest.xlsx
+++ b/LineTest.xlsx
@@ -275,7 +275,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -347,7 +347,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1</v>
@@ -370,7 +370,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>0</v>
@@ -393,7 +393,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>0</v>
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4" t="n">
         <v>1</v>
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,7 +887,7 @@
       <c r="E2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>90000</v>
@@ -907,7 +907,7 @@
       <c r="E3" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>100000</v>
@@ -927,7 +927,7 @@
       <c r="E4" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>3</v>
       </c>
     </row>
@@ -936,7 +936,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>120000</v>
@@ -947,7 +947,7 @@
       <c r="E5" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
     </row>
@@ -956,7 +956,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>130000</v>
@@ -967,7 +967,7 @@
       <c r="E6" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -976,7 +976,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>150000</v>
@@ -987,7 +987,7 @@
       <c r="E7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0</v>
       </c>
     </row>

--- a/LineTest.xlsx
+++ b/LineTest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Artistes" sheetId="1" state="visible" r:id="rId2"/>
@@ -274,8 +274,8 @@
   </sheetPr>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -350,7 +350,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,7 +373,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,7 +841,7 @@
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/LineTest.xlsx
+++ b/LineTest.xlsx
@@ -176,12 +176,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -218,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -236,6 +242,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,7 +289,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,7 +340,7 @@
       <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -349,7 +363,7 @@
       <c r="F3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -372,7 +386,7 @@
       <c r="F4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -395,7 +409,7 @@
       <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -418,7 +432,7 @@
       <c r="F6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -441,7 +455,7 @@
       <c r="F7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -852,10 +866,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1118,14 +1132,14 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1171,7 +1185,7 @@
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="10" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>0</v>
       </c>
@@ -1206,7 +1220,7 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="10" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>3</v>
       </c>

--- a/LineTest.xlsx
+++ b/LineTest.xlsx
@@ -224,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -239,10 +239,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -289,7 +285,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -332,7 +328,7 @@
         <v>80000</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>2</v>
@@ -340,7 +336,7 @@
       <c r="F2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="G2" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -355,7 +351,7 @@
         <v>10000</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>3</v>
@@ -363,7 +359,7 @@
       <c r="F3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -378,7 +374,7 @@
         <v>10000</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>1</v>
@@ -386,7 +382,7 @@
       <c r="F4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -409,7 +405,7 @@
       <c r="F5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -424,7 +420,7 @@
         <v>50000</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4" t="n">
         <v>4</v>
@@ -432,7 +428,7 @@
       <c r="F6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -447,7 +443,7 @@
         <v>1000000</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4" t="n">
         <v>3</v>
@@ -455,7 +451,7 @@
       <c r="F7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -856,7 +852,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -866,10 +862,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1132,14 +1128,14 @@
       <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1185,7 +1181,7 @@
       <c r="B2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="9" t="n">
         <f aca="false">COUNTIF(Artistes!E2:E49,0)</f>
         <v>0</v>
       </c>
@@ -1220,7 +1216,7 @@
         <f aca="false">COUNTIF(Artistes!E2:E49,2)</f>
         <v>1</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <f aca="false">COUNTIF(Artistes!G2:G49,0)</f>
         <v>3</v>
       </c>

--- a/LineTest.xlsx
+++ b/LineTest.xlsx
@@ -285,7 +285,7 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -440,7 +440,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1000000</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>3</v>
@@ -852,7 +852,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
